--- a/docs/Simple/template_ru/PersonGroup.xlsx
+++ b/docs/Simple/template_ru/PersonGroup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t/>
   </si>
@@ -65,6 +65,51 @@
   </si>
   <si>
     <t>V lastname</t>
+  </si>
+  <si>
+    <t>Search index</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>text, NN</t>
+  </si>
+  <si>
+    <t>F search</t>
+  </si>
+  <si>
+    <t>V search</t>
+  </si>
+  <si>
+    <t>Map string: string</t>
+  </si>
+  <si>
+    <t>Person attributes</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>jsonb, NN</t>
+  </si>
+  <si>
+    <t>F attributes</t>
+  </si>
+  <si>
+    <t>V attributes</t>
+  </si>
+  <si>
+    <t>Person external Ids</t>
+  </si>
+  <si>
+    <t>external_ids</t>
+  </si>
+  <si>
+    <t>F external_ids</t>
+  </si>
+  <si>
+    <t>V external_ids</t>
   </si>
   <si>
     <t>User updated record</t>
@@ -196,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -227,6 +272,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>0</v>
       </c>
     </row>
@@ -244,7 +298,16 @@
         <v>17</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -261,7 +324,16 @@
         <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -278,75 +350,120 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
-      <c r="F6" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&K6&") VALUES ("&P6&");" ]]></f>
-      </c>
-      <c r="G6">
+      <c r="I6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&Q6&") VALUES ("&Y6&");" ]]></f>
+      </c>
+      <c r="J6">
         <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
       </c>
-      <c r="H6">
-        <f><![CDATA[  G6&IF(AND(G6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
-      </c>
-      <c r="I6">
-        <f><![CDATA[  H6&IF(AND(H6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
-      </c>
-      <c r="J6">
-        <f><![CDATA[  I6&IF(AND(I6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
-      </c>
       <c r="K6">
-        <f><![CDATA[  J6&IF(AND(J6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+        <f><![CDATA[  J6&IF(AND(J6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
       </c>
       <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
         <f>IF(A6&lt;&gt;"",A6,"")</f>
       </c>
-      <c r="M6">
-        <f><![CDATA[  L6&IF(AND(L6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
-      </c>
-      <c r="N6">
-        <f><![CDATA[  M6&IF(AND(M6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
-      </c>
-      <c r="O6">
-        <f><![CDATA[  N6&IF(AND(N6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
-      </c>
-      <c r="P6">
-        <f><![CDATA[  O6&IF(AND(O6<>"",E6<>""),", ","")&IF(E6<>"", "'"&TEXT(E6,"ГГГГ-ММ-ДД")&" "&TEXT(E6,"ЧЧ:мм:сс")&"'" ,"") ]]></f>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="V6">
+        <f>  U6&amp;IF(AND(U6&lt;&gt;"",E6&lt;&gt;""),", ","")&amp;IF(E6&lt;&gt;"",E6,"") </f>
+      </c>
+      <c r="W6">
+        <f>  V6&amp;IF(AND(V6&lt;&gt;"",F6&lt;&gt;""),", ","")&amp;IF(F6&lt;&gt;"",F6,"") </f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",H6<>""),", ","")&IF(H6<>"", "'"&TEXT(H6,"ГГГГ-ММ-ДД")&" "&TEXT(H6,"ЧЧ:мм:сс")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -367,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -389,16 +506,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -406,13 +523,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -420,40 +537,40 @@
         <v>5</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -503,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -528,19 +645,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -548,16 +665,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -565,49 +682,49 @@
         <v>5</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">

--- a/docs/Simple/template_ru/PersonGroup.xlsx
+++ b/docs/Simple/template_ru/PersonGroup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t/>
   </si>
@@ -154,6 +154,9 @@
     <t>Group Id</t>
   </si>
   <si>
+    <t>smallint, PK, NN, INC</t>
+  </si>
+  <si>
     <t>Group name</t>
   </si>
   <si>
@@ -181,16 +184,19 @@
     <t>group_id</t>
   </si>
   <si>
+    <t>smallint, NN</t>
+  </si>
+  <si>
+    <t>F group_id</t>
+  </si>
+  <si>
+    <t>V group_id</t>
+  </si>
+  <si>
+    <t>person_id</t>
+  </si>
+  <si>
     <t>integer, NN</t>
-  </si>
-  <si>
-    <t>F group_id</t>
-  </si>
-  <si>
-    <t>V group_id</t>
-  </si>
-  <si>
-    <t>person_id</t>
   </si>
   <si>
     <t>F person_id</t>
@@ -509,7 +515,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>32</v>
@@ -523,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>33</v>
@@ -534,10 +540,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -552,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -564,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -620,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -645,7 +651,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>45</v>
@@ -665,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>33</v>
@@ -682,10 +688,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -700,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
         <v>35</v>
@@ -715,10 +721,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
         <v>36</v>
